--- a/pred_ohlcv/54_21/2020-01-26 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 WPX ohlcv.xlsx
@@ -2290,7 +2290,7 @@
         <v>-289370.049701201</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-246858.7741149692</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-264395.4213149692</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-272984.5110149692</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-277931.5086149692</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-277923.8391149692</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-388560.9944813409</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-388550.9944813409</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-406302.1030813408</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-406294.1030813408</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-393917.2252813408</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-403540.3474813408</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1693656.625296302</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1758528.261196302</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1758524.116596302</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1758060.116596302</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1753600.503396302</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1753600.503396302</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1764699.406696302</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 WPX ohlcv.xlsx
@@ -2914,7 +2914,7 @@
         <v>-246858.7741149692</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-264395.4213149692</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-272984.5110149692</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-277931.5086149692</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-277923.8391149692</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-388560.9944813409</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-388550.9944813409</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-406302.1030813408</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-406294.1030813408</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-393917.2252813408</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-403540.3474813408</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-635085.3819645228</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-635093.8834645228</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1693656.625296302</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1758528.261196302</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1758524.116596302</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1758060.116596302</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1753600.503396302</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1764699.406696302</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1764699.406696302</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
